--- a/Code/Results/Cases/Case_1_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6555918019768683</v>
+        <v>0.5563414777818139</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06312203658908544</v>
+        <v>0.03501980377711078</v>
       </c>
       <c r="E2">
-        <v>0.1325581429232994</v>
+        <v>0.2865979018945954</v>
       </c>
       <c r="F2">
-        <v>0.5173463532603506</v>
+        <v>0.792792929073606</v>
       </c>
       <c r="G2">
-        <v>0.000803880700013779</v>
+        <v>0.002439753835041164</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.487605720106842</v>
+        <v>1.133782779201486</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.443100286192163</v>
+        <v>0.4491800626102247</v>
       </c>
       <c r="L2">
-        <v>0.2041808343574729</v>
+        <v>0.1500470941605272</v>
       </c>
       <c r="M2">
-        <v>0.1876656602380606</v>
+        <v>0.1504785850134134</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.531360759352111</v>
+        <v>2.764484150819413</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5760030538378089</v>
+        <v>0.535161830774598</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05734533525990315</v>
+        <v>0.03300260780376618</v>
       </c>
       <c r="E3">
-        <v>0.1357775986581724</v>
+        <v>0.2884919792734988</v>
       </c>
       <c r="F3">
-        <v>0.4908491063412868</v>
+        <v>0.7921491412657744</v>
       </c>
       <c r="G3">
-        <v>0.0008075689716215318</v>
+        <v>0.002442200790296443</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5077010626084828</v>
+        <v>1.146193432821434</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.276898370407537</v>
+        <v>0.3954152233587536</v>
       </c>
       <c r="L3">
-        <v>0.1792354075637661</v>
+        <v>0.1436718949989881</v>
       </c>
       <c r="M3">
-        <v>0.1648403594106043</v>
+        <v>0.1445082727467764</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.491136497305789</v>
+        <v>2.775940267536797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5273812589307738</v>
+        <v>0.5223439493359763</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05378664064476624</v>
+        <v>0.03175285957945562</v>
       </c>
       <c r="E4">
-        <v>0.1378576813949436</v>
+        <v>0.2897245121466823</v>
       </c>
       <c r="F4">
-        <v>0.4755954814291101</v>
+        <v>0.7922498292998625</v>
       </c>
       <c r="G4">
-        <v>0.0008099106327951537</v>
+        <v>0.002443784469829714</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5209318384273605</v>
+        <v>1.154312427702539</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.174735165913631</v>
+        <v>0.3622321539591553</v>
       </c>
       <c r="L4">
-        <v>0.1640493890822228</v>
+        <v>0.139824560359159</v>
       </c>
       <c r="M4">
-        <v>0.1509135749078325</v>
+        <v>0.1408993370808957</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.469728818396845</v>
+        <v>2.784612015987179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5076224451306075</v>
+        <v>0.5171679435240719</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05233319613866882</v>
+        <v>0.03124079020687986</v>
       </c>
       <c r="E5">
-        <v>0.1387312106805166</v>
+        <v>0.2902443098618696</v>
       </c>
       <c r="F5">
-        <v>0.4696219997290001</v>
+        <v>0.7924155900241985</v>
       </c>
       <c r="G5">
-        <v>0.0008108845697730357</v>
+        <v>0.002444450320342284</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5265423065250836</v>
+        <v>1.157746457610967</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.133061994133669</v>
+        <v>0.3486674444699531</v>
       </c>
       <c r="L5">
-        <v>0.1578905243256941</v>
+        <v>0.1382736963325115</v>
       </c>
       <c r="M5">
-        <v>0.1452581149795051</v>
+        <v>0.1394430843685335</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.461794288147146</v>
+        <v>2.78855757602733</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5043446341452125</v>
+        <v>0.5163113479648302</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05209164861304316</v>
+        <v>0.03115559389573974</v>
       </c>
       <c r="E6">
-        <v>0.1388778196364566</v>
+        <v>0.2903316818182607</v>
       </c>
       <c r="F6">
-        <v>0.4686443868488226</v>
+        <v>0.7924506481828075</v>
       </c>
       <c r="G6">
-        <v>0.000811047489496783</v>
+        <v>0.002444562123301687</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5274869795672714</v>
+        <v>1.158324255291896</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.126139391801473</v>
+        <v>0.3464124988782658</v>
       </c>
       <c r="L6">
-        <v>0.1568695423953983</v>
+        <v>0.1380172033717244</v>
       </c>
       <c r="M6">
-        <v>0.1443201615587313</v>
+        <v>0.1392021490525366</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.460523356300129</v>
+        <v>2.789237600702776</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5271145709684788</v>
+        <v>0.5222739514055377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05376705249890534</v>
+        <v>0.03174596488363335</v>
       </c>
       <c r="E7">
-        <v>0.1378693574664022</v>
+        <v>0.2897314512877944</v>
       </c>
       <c r="F7">
-        <v>0.4755139557732875</v>
+        <v>0.7922515597666049</v>
       </c>
       <c r="G7">
-        <v>0.0008099236876475224</v>
+        <v>0.002443793366601832</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5210066242930544</v>
+        <v>1.154358232132946</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.174173327659958</v>
+        <v>0.3620493860160252</v>
       </c>
       <c r="L7">
-        <v>0.1639662129930883</v>
+        <v>0.1398035760870826</v>
       </c>
       <c r="M7">
-        <v>0.1508372261365132</v>
+        <v>0.1408796390107732</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.469618663816433</v>
+        <v>2.784663560087708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6280942482797514</v>
+        <v>0.5490003095907809</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06113249490470452</v>
+        <v>0.03432660975087742</v>
       </c>
       <c r="E8">
-        <v>0.133646703461585</v>
+        <v>0.2872365656025514</v>
       </c>
       <c r="F8">
-        <v>0.5079912942350546</v>
+        <v>0.7924680160384625</v>
       </c>
       <c r="G8">
-        <v>0.000805136619740812</v>
+        <v>0.00244058072025022</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4943460371937611</v>
+        <v>1.137958474223471</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.385810123755732</v>
+        <v>0.4306779029202801</v>
       </c>
       <c r="L8">
-        <v>0.1955505221471157</v>
+        <v>0.1478350596409257</v>
       </c>
       <c r="M8">
-        <v>0.1797757822273063</v>
+        <v>0.1484082897532986</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.51678506878315</v>
+        <v>2.768094293404602</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8284065356556312</v>
+        <v>0.6028721424637808</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07549710895795414</v>
+        <v>0.03929764919282519</v>
       </c>
       <c r="E9">
-        <v>0.1261906302238064</v>
+        <v>0.2828942761948852</v>
       </c>
       <c r="F9">
-        <v>0.5803562407956093</v>
+        <v>0.7968285442411371</v>
       </c>
       <c r="G9">
-        <v>0.0007963454409777162</v>
+        <v>0.00243492258571777</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4494025831102988</v>
+        <v>1.109754066029758</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.800519647177367</v>
+        <v>0.5638740676170926</v>
       </c>
       <c r="L9">
-        <v>0.258682128290971</v>
+        <v>0.1641137639364132</v>
       </c>
       <c r="M9">
-        <v>0.2373362099485874</v>
+        <v>0.1636187032716485</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.637198482498121</v>
+        <v>2.748600619860497</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9774868728931381</v>
+        <v>0.6433225920770553</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08602499549465392</v>
+        <v>0.04289439795742567</v>
       </c>
       <c r="E10">
-        <v>0.1212219959876628</v>
+        <v>0.280036922338903</v>
       </c>
       <c r="F10">
-        <v>0.6397230865192682</v>
+        <v>0.8024345519511229</v>
       </c>
       <c r="G10">
-        <v>0.0007902278362750555</v>
+        <v>0.002431153009239722</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4212320068826436</v>
+        <v>1.091440067153947</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.10593721183298</v>
+        <v>0.6608644744433718</v>
       </c>
       <c r="L10">
-        <v>0.3060312198811346</v>
+        <v>0.1763933848314849</v>
       </c>
       <c r="M10">
-        <v>0.2802917351701808</v>
+        <v>0.1750614894918527</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.745361718210717</v>
+        <v>2.742212898196613</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.045844866338911</v>
+        <v>0.6619096482742464</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09081417940402758</v>
+        <v>0.04451844501387114</v>
       </c>
       <c r="E11">
-        <v>0.1190738165436731</v>
+        <v>0.2788088037199208</v>
       </c>
       <c r="F11">
-        <v>0.6682926771446205</v>
+        <v>0.8055072188069374</v>
       </c>
       <c r="G11">
-        <v>0.0007875136906260431</v>
+        <v>0.002429521447526395</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.409557770744545</v>
+        <v>1.08363061450644</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.245260202079237</v>
+        <v>0.7047945479019404</v>
       </c>
       <c r="L11">
-        <v>0.3278379667659834</v>
+        <v>0.1820485959262896</v>
       </c>
       <c r="M11">
-        <v>0.3000185764395908</v>
+        <v>0.1803243285042342</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.799479304532611</v>
+        <v>2.741032188819844</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.071818624259549</v>
+        <v>0.6689743910215782</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09262817723890748</v>
+        <v>0.04513166366063359</v>
       </c>
       <c r="E12">
-        <v>0.118276623426308</v>
+        <v>0.2783540188130418</v>
       </c>
       <c r="F12">
-        <v>0.6793552298018426</v>
+        <v>0.8067459080411936</v>
       </c>
       <c r="G12">
-        <v>0.0007864953549153175</v>
+        <v>0.002428915525297116</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4053089873291711</v>
+        <v>1.080748351460088</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.298093238032351</v>
+        <v>0.7214016037051749</v>
       </c>
       <c r="L12">
-        <v>0.3361390321887399</v>
+        <v>0.1841999463289739</v>
       </c>
       <c r="M12">
-        <v>0.3075189290864131</v>
+        <v>0.1823253870851786</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.820735490518501</v>
+        <v>2.74083328348874</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.066220621726359</v>
+        <v>0.6674517138866918</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09223747355190426</v>
+        <v>0.04499967534352578</v>
       </c>
       <c r="E13">
-        <v>0.1184475867083448</v>
+        <v>0.2784515083525316</v>
       </c>
       <c r="F13">
-        <v>0.6769615474510005</v>
+        <v>0.8064757923178689</v>
       </c>
       <c r="G13">
-        <v>0.0007867142585972811</v>
+        <v>0.002429045492513169</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4062162570813435</v>
+        <v>1.081365762560022</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.286711072682124</v>
+        <v>0.7178262487886684</v>
       </c>
       <c r="L13">
-        <v>0.3343492412096367</v>
+        <v>0.1837361782593661</v>
       </c>
       <c r="M13">
-        <v>0.3059021920511071</v>
+        <v>0.1818940634968769</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.816122713367918</v>
+        <v>2.74086508023683</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.047979916283566</v>
+        <v>0.6624903461832048</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09096340669753289</v>
+        <v>0.04456893057049882</v>
       </c>
       <c r="E14">
-        <v>0.1190079038448464</v>
+        <v>0.278771182521671</v>
       </c>
       <c r="F14">
-        <v>0.6691977986603774</v>
+        <v>0.8056076206237179</v>
       </c>
       <c r="G14">
-        <v>0.0007874297247014634</v>
+        <v>0.002429471359445672</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.409204726304754</v>
+        <v>1.083391985788218</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.249605202953092</v>
+        <v>0.7061613922821834</v>
       </c>
       <c r="L14">
-        <v>0.3285200030391167</v>
+        <v>0.182225392083879</v>
       </c>
       <c r="M14">
-        <v>0.3006350085466636</v>
+        <v>0.1804887944725735</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.801212434061767</v>
+        <v>2.741010849613673</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.036818745467343</v>
+        <v>0.6594547657344947</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09018307453708019</v>
+        <v>0.04430485526280847</v>
       </c>
       <c r="E15">
-        <v>0.1193532387665257</v>
+        <v>0.2789683295314023</v>
       </c>
       <c r="F15">
-        <v>0.66447462531724</v>
+        <v>0.8050856256294878</v>
       </c>
       <c r="G15">
-        <v>0.0007878691858175922</v>
+        <v>0.002429733765322268</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4110578939243972</v>
+        <v>1.08464287389647</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.226887063589913</v>
+        <v>0.6990126205948854</v>
       </c>
       <c r="L15">
-        <v>0.3249552186765357</v>
+        <v>0.181301271058274</v>
       </c>
       <c r="M15">
-        <v>0.2974127495097747</v>
+        <v>0.1796290823636681</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.792180569190805</v>
+        <v>2.741132465023838</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9730312627296769</v>
+        <v>0.6421115822341221</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08571204773537744</v>
+        <v>0.0427880161281351</v>
       </c>
       <c r="E16">
-        <v>0.1213646532244368</v>
+        <v>0.2801186227512955</v>
       </c>
       <c r="F16">
-        <v>0.6378890550540817</v>
+        <v>0.8022442599287558</v>
       </c>
       <c r="G16">
-        <v>0.0007904065592678356</v>
+        <v>0.002431261305765597</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4220185691458553</v>
+        <v>1.091960929924955</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.096841487985103</v>
+        <v>0.6579896224750428</v>
       </c>
       <c r="L16">
-        <v>0.3046118873865424</v>
+        <v>0.176025186501775</v>
       </c>
       <c r="M16">
-        <v>0.2790065758289941</v>
+        <v>0.1747186959520519</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.74192861917237</v>
+        <v>2.742324785457072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9340453004782887</v>
+        <v>0.6315193618924297</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08296951855194123</v>
+        <v>0.04185435710462571</v>
       </c>
       <c r="E17">
-        <v>0.122627406589698</v>
+        <v>0.2808426315406727</v>
       </c>
       <c r="F17">
-        <v>0.6219932359778184</v>
+        <v>0.8006349956070835</v>
       </c>
       <c r="G17">
-        <v>0.0007919804690768663</v>
+        <v>0.002432219682641048</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4290402625504903</v>
+        <v>1.096583927595461</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.017174782453765</v>
+        <v>0.6327737670859221</v>
       </c>
       <c r="L17">
-        <v>0.2922037634570955</v>
+        <v>0.1728061200915079</v>
       </c>
       <c r="M17">
-        <v>0.2677650501673234</v>
+        <v>0.171720959115234</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.71239812987136</v>
+        <v>2.743498172454906</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9116718305232325</v>
+        <v>0.6254445292510411</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08139205977966668</v>
+        <v>0.04131620088870847</v>
       </c>
       <c r="E18">
-        <v>0.1233642480391648</v>
+        <v>0.2812658135881969</v>
       </c>
       <c r="F18">
-        <v>0.6129963124442313</v>
+        <v>0.7997585659597704</v>
       </c>
       <c r="G18">
-        <v>0.0007928922422780661</v>
+        <v>0.002432778753688914</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4331858177830235</v>
+        <v>1.099292056863106</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.971387818787832</v>
+        <v>0.6182523106011502</v>
       </c>
       <c r="L18">
-        <v>0.2850917975030143</v>
+        <v>0.1709611128807325</v>
       </c>
       <c r="M18">
-        <v>0.2613165233851973</v>
+        <v>0.1700021559754887</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.695871860691511</v>
+        <v>2.744335439927653</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9041048806815297</v>
+        <v>0.6233907220727417</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08085794159691773</v>
+        <v>0.04113379546210183</v>
       </c>
       <c r="E19">
-        <v>0.1236155353098953</v>
+        <v>0.2814102563555416</v>
       </c>
       <c r="F19">
-        <v>0.609974612390431</v>
+        <v>0.7994702678365897</v>
       </c>
       <c r="G19">
-        <v>0.0007932020827287066</v>
+        <v>0.002432969393507226</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4346075506359846</v>
+        <v>1.100217416727553</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.955890639117627</v>
+        <v>0.6133325339497446</v>
       </c>
       <c r="L19">
-        <v>0.282687934535744</v>
+        <v>0.1703375470516448</v>
       </c>
       <c r="M19">
-        <v>0.2591360330245216</v>
+        <v>0.1694211327992221</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.690353506409309</v>
+        <v>2.744646806669181</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9381901520713143</v>
+        <v>0.6326451110021196</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08326146534160728</v>
+        <v>0.04195386491626607</v>
       </c>
       <c r="E20">
-        <v>0.1224918924597187</v>
+        <v>0.2807648610801075</v>
       </c>
       <c r="F20">
-        <v>0.6236701357125725</v>
+        <v>0.8008012148887786</v>
       </c>
       <c r="G20">
-        <v>0.0007918122538488629</v>
+        <v>0.002432116851108613</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4282816752685363</v>
+        <v>1.096086719664093</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.025651662755678</v>
+        <v>0.635459902842598</v>
       </c>
       <c r="L20">
-        <v>0.2935220224243125</v>
+        <v>0.1731481216815496</v>
       </c>
       <c r="M20">
-        <v>0.268959914834852</v>
+        <v>0.1720395137228508</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.715493811100686</v>
+        <v>2.743356458098958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.053335177586831</v>
+        <v>0.6639469123864785</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09133761548071817</v>
+        <v>0.04469549908745307</v>
       </c>
       <c r="E21">
-        <v>0.1188428820772918</v>
+        <v>0.2786770078273728</v>
       </c>
       <c r="F21">
-        <v>0.6714714229200212</v>
+        <v>0.8058605844502438</v>
       </c>
       <c r="G21">
-        <v>0.0007872193220734602</v>
+        <v>0.002429345949080446</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4083222065547538</v>
+        <v>1.082794799309966</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.26050191896897</v>
+        <v>0.7095884180265841</v>
       </c>
       <c r="L21">
-        <v>0.3302309753024986</v>
+        <v>0.1826688802128018</v>
       </c>
       <c r="M21">
-        <v>0.3021812589679058</v>
+        <v>0.1809013362589837</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.805570766587721</v>
+        <v>2.740961296361576</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.129107756521677</v>
+        <v>0.6845570896919355</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09661862521489439</v>
+        <v>0.04647696965301407</v>
       </c>
       <c r="E22">
-        <v>0.1165529923836897</v>
+        <v>0.2773723612942078</v>
       </c>
       <c r="F22">
-        <v>0.7041435857137657</v>
+        <v>0.809605132978902</v>
       </c>
       <c r="G22">
-        <v>0.0007842724479865806</v>
+        <v>0.002427604428546829</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3962841297160509</v>
+        <v>1.07454495605484</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.414433837575643</v>
+        <v>0.7578703113345</v>
       </c>
       <c r="L22">
-        <v>0.3544774293768</v>
+        <v>0.1889485826800268</v>
       </c>
       <c r="M22">
-        <v>0.3240712854612084</v>
+        <v>0.1867404117456886</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.868917876259587</v>
+        <v>2.740842702202173</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.088615447569026</v>
+        <v>0.673543251902629</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09379964337357904</v>
+        <v>0.0455271212264492</v>
       </c>
       <c r="E23">
-        <v>0.1177664063166772</v>
+        <v>0.2780632073641245</v>
       </c>
       <c r="F23">
-        <v>0.6865682322780202</v>
+        <v>0.8075665218257058</v>
       </c>
       <c r="G23">
-        <v>0.0007858403813582142</v>
+        <v>0.002428527576460365</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4026142107176511</v>
+        <v>1.078908052324515</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.332230282347382</v>
+        <v>0.7321167497869965</v>
       </c>
       <c r="L23">
-        <v>0.3415116063332562</v>
+        <v>0.1855917737444059</v>
       </c>
       <c r="M23">
-        <v>0.3123706784041786</v>
+        <v>0.183619695463257</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.8346790246095</v>
+        <v>2.740773572982363</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9363161406014058</v>
+        <v>0.6321361137667907</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08312947854274455</v>
+        <v>0.04190888174082374</v>
       </c>
       <c r="E24">
-        <v>0.1225531245592784</v>
+        <v>0.2807999994867745</v>
       </c>
       <c r="F24">
-        <v>0.6229115691103146</v>
+        <v>0.8007259152746116</v>
       </c>
       <c r="G24">
-        <v>0.0007918882823376319</v>
+        <v>0.002432163316070953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4286242946297492</v>
+        <v>1.096311350668223</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.021819221451864</v>
+        <v>0.6342455772024778</v>
       </c>
       <c r="L24">
-        <v>0.2929259705374818</v>
+        <v>0.1729934850727659</v>
       </c>
       <c r="M24">
-        <v>0.2684196719989558</v>
+        <v>0.1718954807358344</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.714092852445248</v>
+        <v>2.743420020455034</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7739203248610522</v>
+        <v>0.5881440087123053</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07161733791201641</v>
+        <v>0.03796253167770658</v>
       </c>
       <c r="E25">
-        <v>0.1281187597591683</v>
+        <v>0.2840103373643486</v>
       </c>
       <c r="F25">
-        <v>0.5597600212787484</v>
+        <v>0.7952272294687575</v>
       </c>
       <c r="G25">
-        <v>0.0007986620797512176</v>
+        <v>0.002436384944236559</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4607378817770424</v>
+        <v>1.116961016995891</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.688271900533124</v>
+        <v>0.5279917541649013</v>
       </c>
       <c r="L25">
-        <v>0.2414517735185626</v>
+        <v>0.159653603394716</v>
       </c>
       <c r="M25">
-        <v>0.221660659024348</v>
+        <v>0.1594565376865802</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.601368357246258</v>
+        <v>2.75248154467522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_199/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5563414777818139</v>
+        <v>0.6555918019768683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03501980377711078</v>
+        <v>0.06312203658925597</v>
       </c>
       <c r="E2">
-        <v>0.2865979018945954</v>
+        <v>0.1325581429233044</v>
       </c>
       <c r="F2">
-        <v>0.792792929073606</v>
+        <v>0.5173463532603293</v>
       </c>
       <c r="G2">
-        <v>0.002439753835041164</v>
+        <v>0.0008038806999139392</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.133782779201486</v>
+        <v>0.4876057201068278</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4491800626102247</v>
+        <v>1.443100286192333</v>
       </c>
       <c r="L2">
-        <v>0.1500470941605272</v>
+        <v>0.2041808343574729</v>
       </c>
       <c r="M2">
-        <v>0.1504785850134134</v>
+        <v>0.1876656602380571</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.764484150819413</v>
+        <v>1.531360759352054</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.535161830774598</v>
+        <v>0.5760030538377805</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03300260780376618</v>
+        <v>0.05734533526013053</v>
       </c>
       <c r="E3">
-        <v>0.2884919792734988</v>
+        <v>0.1357775986581813</v>
       </c>
       <c r="F3">
-        <v>0.7921491412657744</v>
+        <v>0.4908491063412583</v>
       </c>
       <c r="G3">
-        <v>0.002442200790296443</v>
+        <v>0.000807568971562136</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.146193432821434</v>
+        <v>0.5077010626085006</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3954152233587536</v>
+        <v>1.276898370407508</v>
       </c>
       <c r="L3">
-        <v>0.1436718949989881</v>
+        <v>0.1792354075638087</v>
       </c>
       <c r="M3">
-        <v>0.1445082727467764</v>
+        <v>0.1648403594106114</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.775940267536797</v>
+        <v>1.491136497305916</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5223439493359763</v>
+        <v>0.5273812589306033</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03175285957945562</v>
+        <v>0.05378664064469518</v>
       </c>
       <c r="E4">
-        <v>0.2897245121466823</v>
+        <v>0.1378576813949342</v>
       </c>
       <c r="F4">
-        <v>0.7922498292998625</v>
+        <v>0.4755954814290746</v>
       </c>
       <c r="G4">
-        <v>0.002443784469829714</v>
+        <v>0.000809910632989741</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.154312427702539</v>
+        <v>0.5209318384273534</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3622321539591553</v>
+        <v>1.174735165913603</v>
       </c>
       <c r="L4">
-        <v>0.139824560359159</v>
+        <v>0.1640493890822015</v>
       </c>
       <c r="M4">
-        <v>0.1408993370808957</v>
+        <v>0.1509135749078112</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.784612015987179</v>
+        <v>1.469728818396817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5171679435240719</v>
+        <v>0.5076224451304654</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03124079020687986</v>
+        <v>0.05233319613871856</v>
       </c>
       <c r="E5">
-        <v>0.2902443098618696</v>
+        <v>0.138731210680519</v>
       </c>
       <c r="F5">
-        <v>0.7924155900241985</v>
+        <v>0.4696219997289788</v>
       </c>
       <c r="G5">
-        <v>0.002444450320342284</v>
+        <v>0.0008108845697560144</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.157746457610967</v>
+        <v>0.526542306525057</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3486674444699531</v>
+        <v>1.133061994133669</v>
       </c>
       <c r="L5">
-        <v>0.1382736963325115</v>
+        <v>0.1578905243257864</v>
       </c>
       <c r="M5">
-        <v>0.1394430843685335</v>
+        <v>0.1452581149795016</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.78855757602733</v>
+        <v>1.461794288147061</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5163113479648302</v>
+        <v>0.5043446341452125</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03115559389573974</v>
+        <v>0.05209164861287974</v>
       </c>
       <c r="E6">
-        <v>0.2903316818182607</v>
+        <v>0.138877819636445</v>
       </c>
       <c r="F6">
-        <v>0.7924506481828075</v>
+        <v>0.4686443868488226</v>
       </c>
       <c r="G6">
-        <v>0.002444562123301687</v>
+        <v>0.0008110474895739435</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.158324255291896</v>
+        <v>0.5274869795672714</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3464124988782658</v>
+        <v>1.126139391801502</v>
       </c>
       <c r="L6">
-        <v>0.1380172033717244</v>
+        <v>0.1568695423953699</v>
       </c>
       <c r="M6">
-        <v>0.1392021490525366</v>
+        <v>0.1443201615587313</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.789237600702776</v>
+        <v>1.460523356300172</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5222739514055377</v>
+        <v>0.5271145709685641</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03174596488363335</v>
+        <v>0.05376705249886271</v>
       </c>
       <c r="E7">
-        <v>0.2897314512877944</v>
+        <v>0.1378693574664008</v>
       </c>
       <c r="F7">
-        <v>0.7922515597666049</v>
+        <v>0.4755139557732804</v>
       </c>
       <c r="G7">
-        <v>0.002443793366601832</v>
+        <v>0.0008099236876075546</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.154358232132946</v>
+        <v>0.5210066242930615</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3620493860160252</v>
+        <v>1.174173327659844</v>
       </c>
       <c r="L7">
-        <v>0.1398035760870826</v>
+        <v>0.1639662129930954</v>
       </c>
       <c r="M7">
-        <v>0.1408796390107732</v>
+        <v>0.1508372261365345</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.784663560087708</v>
+        <v>1.469618663816433</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5490003095907809</v>
+        <v>0.6280942482795808</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03432660975087742</v>
+        <v>0.06113249490470452</v>
       </c>
       <c r="E8">
-        <v>0.2872365656025514</v>
+        <v>0.1336467034615725</v>
       </c>
       <c r="F8">
-        <v>0.7924680160384625</v>
+        <v>0.5079912942350475</v>
       </c>
       <c r="G8">
-        <v>0.00244058072025022</v>
+        <v>0.0008051366197405768</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.137958474223471</v>
+        <v>0.4943460371937505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4306779029202801</v>
+        <v>1.385810123755761</v>
       </c>
       <c r="L8">
-        <v>0.1478350596409257</v>
+        <v>0.1955505221469878</v>
       </c>
       <c r="M8">
-        <v>0.1484082897532986</v>
+        <v>0.1797757822273098</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.768094293404602</v>
+        <v>1.516785068783179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6028721424637808</v>
+        <v>0.828406535655688</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03929764919282519</v>
+        <v>0.07549710895784045</v>
       </c>
       <c r="E9">
-        <v>0.2828942761948852</v>
+        <v>0.1261906302238378</v>
       </c>
       <c r="F9">
-        <v>0.7968285442411371</v>
+        <v>0.5803562407956164</v>
       </c>
       <c r="G9">
-        <v>0.00243492258571777</v>
+        <v>0.0007963454409782715</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.109754066029758</v>
+        <v>0.4494025831102775</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5638740676170926</v>
+        <v>1.800519647177452</v>
       </c>
       <c r="L9">
-        <v>0.1641137639364132</v>
+        <v>0.258682128290971</v>
       </c>
       <c r="M9">
-        <v>0.1636187032716485</v>
+        <v>0.2373362099485838</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.748600619860497</v>
+        <v>1.637198482498007</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6433225920770553</v>
+        <v>0.9774868728930244</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04289439795742567</v>
+        <v>0.08602499549453313</v>
       </c>
       <c r="E10">
-        <v>0.280036922338903</v>
+        <v>0.1212219959876673</v>
       </c>
       <c r="F10">
-        <v>0.8024345519511229</v>
+        <v>0.6397230865192682</v>
       </c>
       <c r="G10">
-        <v>0.002431153009239722</v>
+        <v>0.0007902278362545003</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.091440067153947</v>
+        <v>0.4212320068826543</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6608644744433718</v>
+        <v>2.105937211832924</v>
       </c>
       <c r="L10">
-        <v>0.1763933848314849</v>
+        <v>0.3060312198811488</v>
       </c>
       <c r="M10">
-        <v>0.1750614894918527</v>
+        <v>0.2802917351701808</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.742212898196613</v>
+        <v>1.745361718210631</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6619096482742464</v>
+        <v>1.045844866338825</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04451844501387114</v>
+        <v>0.09081417940403469</v>
       </c>
       <c r="E11">
-        <v>0.2788088037199208</v>
+        <v>0.1190738165436731</v>
       </c>
       <c r="F11">
-        <v>0.8055072188069374</v>
+        <v>0.6682926771446205</v>
       </c>
       <c r="G11">
-        <v>0.002429521447526395</v>
+        <v>0.0007875136905757127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.08363061450644</v>
+        <v>0.4095577707445486</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7047945479019404</v>
+        <v>2.245260202079123</v>
       </c>
       <c r="L11">
-        <v>0.1820485959262896</v>
+        <v>0.327837966766154</v>
       </c>
       <c r="M11">
-        <v>0.1803243285042342</v>
+        <v>0.3000185764396051</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.741032188819844</v>
+        <v>1.799479304532582</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6689743910215782</v>
+        <v>1.071818624259635</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04513166366063359</v>
+        <v>0.09262817723896433</v>
       </c>
       <c r="E12">
-        <v>0.2783540188130418</v>
+        <v>0.1182766234262782</v>
       </c>
       <c r="F12">
-        <v>0.8067459080411936</v>
+        <v>0.6793552298018284</v>
       </c>
       <c r="G12">
-        <v>0.002428915525297116</v>
+        <v>0.0007864953549149057</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.080748351460088</v>
+        <v>0.4053089873291604</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7214016037051749</v>
+        <v>2.298093238032322</v>
       </c>
       <c r="L12">
-        <v>0.1841999463289739</v>
+        <v>0.3361390321887257</v>
       </c>
       <c r="M12">
-        <v>0.1823253870851786</v>
+        <v>0.3075189290863989</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.74083328348874</v>
+        <v>1.820735490518501</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6674517138866918</v>
+        <v>1.066220621726103</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04499967534352578</v>
+        <v>0.09223747355184742</v>
       </c>
       <c r="E13">
-        <v>0.2784515083525316</v>
+        <v>0.1184475867083326</v>
       </c>
       <c r="F13">
-        <v>0.8064757923178689</v>
+        <v>0.6769615474509862</v>
       </c>
       <c r="G13">
-        <v>0.002429045492513169</v>
+        <v>0.0007867142585973182</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.081365762560022</v>
+        <v>0.4062162570813186</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7178262487886684</v>
+        <v>2.286711072682095</v>
       </c>
       <c r="L13">
-        <v>0.1837361782593661</v>
+        <v>0.3343492412096083</v>
       </c>
       <c r="M13">
-        <v>0.1818940634968769</v>
+        <v>0.3059021920510929</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.74086508023683</v>
+        <v>1.816122713367889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6624903461832048</v>
+        <v>1.047979916283566</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04456893057049882</v>
+        <v>0.09096340669781711</v>
       </c>
       <c r="E14">
-        <v>0.278771182521671</v>
+        <v>0.1190079038448497</v>
       </c>
       <c r="F14">
-        <v>0.8056076206237179</v>
+        <v>0.6691977986603774</v>
       </c>
       <c r="G14">
-        <v>0.002429471359445672</v>
+        <v>0.0007874297246726599</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.083391985788218</v>
+        <v>0.4092047263047682</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7061613922821834</v>
+        <v>2.249605202953092</v>
       </c>
       <c r="L14">
-        <v>0.182225392083879</v>
+        <v>0.3285200030392446</v>
       </c>
       <c r="M14">
-        <v>0.1804887944725735</v>
+        <v>0.3006350085466494</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.741010849613673</v>
+        <v>1.801212434061739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6594547657344947</v>
+        <v>1.036818745467514</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04430485526280847</v>
+        <v>0.09018307453707308</v>
       </c>
       <c r="E15">
-        <v>0.2789683295314023</v>
+        <v>0.1193532387665139</v>
       </c>
       <c r="F15">
-        <v>0.8050856256294878</v>
+        <v>0.6644746253172258</v>
       </c>
       <c r="G15">
-        <v>0.002429733765322268</v>
+        <v>0.0007878691858437257</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.08464287389647</v>
+        <v>0.4110578939244007</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6990126205948854</v>
+        <v>2.2268870635898</v>
       </c>
       <c r="L15">
-        <v>0.181301271058274</v>
+        <v>0.3249552186765641</v>
       </c>
       <c r="M15">
-        <v>0.1796290823636681</v>
+        <v>0.2974127495097676</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.741132465023838</v>
+        <v>1.792180569190776</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6421115822341221</v>
+        <v>0.9730312627295348</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0427880161281351</v>
+        <v>0.08571204773539876</v>
       </c>
       <c r="E16">
-        <v>0.2801186227512955</v>
+        <v>0.1213646532244497</v>
       </c>
       <c r="F16">
-        <v>0.8022442599287558</v>
+        <v>0.6378890550540817</v>
       </c>
       <c r="G16">
-        <v>0.002431261305765597</v>
+        <v>0.0007904065592927019</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.091960929924955</v>
+        <v>0.4220185691458624</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6579896224750428</v>
+        <v>2.096841487985017</v>
       </c>
       <c r="L16">
-        <v>0.176025186501775</v>
+        <v>0.3046118873866135</v>
       </c>
       <c r="M16">
-        <v>0.1747186959520519</v>
+        <v>0.2790065758289941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.742324785457072</v>
+        <v>1.741928619172313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6315193618924297</v>
+        <v>0.9340453004782319</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04185435710462571</v>
+        <v>0.08296951855187729</v>
       </c>
       <c r="E17">
-        <v>0.2808426315406727</v>
+        <v>0.1226274065896855</v>
       </c>
       <c r="F17">
-        <v>0.8006349956070835</v>
+        <v>0.62199323597779</v>
       </c>
       <c r="G17">
-        <v>0.002432219682641048</v>
+        <v>0.0007919804690577271</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.096583927595461</v>
+        <v>0.4290402625504868</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6327737670859221</v>
+        <v>2.01717478245385</v>
       </c>
       <c r="L17">
-        <v>0.1728061200915079</v>
+        <v>0.2922037634570813</v>
       </c>
       <c r="M17">
-        <v>0.171720959115234</v>
+        <v>0.2677650501673092</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.743498172454906</v>
+        <v>1.71239812987136</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6254445292510411</v>
+        <v>0.9116718305233462</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04131620088870847</v>
+        <v>0.08139205977950326</v>
       </c>
       <c r="E18">
-        <v>0.2812658135881969</v>
+        <v>0.1233642480391766</v>
       </c>
       <c r="F18">
-        <v>0.7997585659597704</v>
+        <v>0.6129963124442384</v>
       </c>
       <c r="G18">
-        <v>0.002432778753688914</v>
+        <v>0.000792892242301701</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.099292056863106</v>
+        <v>0.4331858177830199</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6182523106011502</v>
+        <v>1.97138781878769</v>
       </c>
       <c r="L18">
-        <v>0.1709611128807325</v>
+        <v>0.285091797502858</v>
       </c>
       <c r="M18">
-        <v>0.1700021559754887</v>
+        <v>0.2613165233852186</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.744335439927653</v>
+        <v>1.695871860691483</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6233907220727417</v>
+        <v>0.9041048806816434</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04113379546210183</v>
+        <v>0.08085794159674009</v>
       </c>
       <c r="E19">
-        <v>0.2814102563555416</v>
+        <v>0.1236155353098956</v>
       </c>
       <c r="F19">
-        <v>0.7994702678365897</v>
+        <v>0.609974612390431</v>
       </c>
       <c r="G19">
-        <v>0.002432969393507226</v>
+        <v>0.0007932020827292997</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.100217416727553</v>
+        <v>0.4346075506359846</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6133325339497446</v>
+        <v>1.955890639117712</v>
       </c>
       <c r="L19">
-        <v>0.1703375470516448</v>
+        <v>0.2826879345356872</v>
       </c>
       <c r="M19">
-        <v>0.1694211327992221</v>
+        <v>0.2591360330245216</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.744646806669181</v>
+        <v>1.690353506409366</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6326451110021196</v>
+        <v>0.938190152071229</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04195386491626607</v>
+        <v>0.08326146534183465</v>
       </c>
       <c r="E20">
-        <v>0.2807648610801075</v>
+        <v>0.1224918924597462</v>
       </c>
       <c r="F20">
-        <v>0.8008012148887786</v>
+        <v>0.6236701357125654</v>
       </c>
       <c r="G20">
-        <v>0.002432116851108613</v>
+        <v>0.0007918122537906293</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.096086719664093</v>
+        <v>0.4282816752685079</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.635459902842598</v>
+        <v>2.025651662755479</v>
       </c>
       <c r="L20">
-        <v>0.1731481216815496</v>
+        <v>0.2935220224243977</v>
       </c>
       <c r="M20">
-        <v>0.1720395137228508</v>
+        <v>0.2689599148348556</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.743356458098958</v>
+        <v>1.715493811100572</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6639469123864785</v>
+        <v>1.053335177586717</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04469549908745307</v>
+        <v>0.09133761548083896</v>
       </c>
       <c r="E21">
-        <v>0.2786770078273728</v>
+        <v>0.1188428820773002</v>
       </c>
       <c r="F21">
-        <v>0.8058605844502438</v>
+        <v>0.6714714229200212</v>
       </c>
       <c r="G21">
-        <v>0.002429345949080446</v>
+        <v>0.0007872193220487945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.082794799309966</v>
+        <v>0.4083222065547467</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7095884180265841</v>
+        <v>2.260501918969112</v>
       </c>
       <c r="L21">
-        <v>0.1826688802128018</v>
+        <v>0.3302309753024559</v>
       </c>
       <c r="M21">
-        <v>0.1809013362589837</v>
+        <v>0.3021812589679058</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.740961296361576</v>
+        <v>1.805570766587664</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6845570896919355</v>
+        <v>1.129107756521677</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04647696965301407</v>
+        <v>0.0966186252147736</v>
       </c>
       <c r="E22">
-        <v>0.2773723612942078</v>
+        <v>0.1165529923836799</v>
       </c>
       <c r="F22">
-        <v>0.809605132978902</v>
+        <v>0.7041435857137657</v>
       </c>
       <c r="G22">
-        <v>0.002427604428546829</v>
+        <v>0.0007842724480129719</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.07454495605484</v>
+        <v>0.3962841297160331</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7578703113345</v>
+        <v>2.414433837575643</v>
       </c>
       <c r="L22">
-        <v>0.1889485826800268</v>
+        <v>0.3544774293768143</v>
       </c>
       <c r="M22">
-        <v>0.1867404117456886</v>
+        <v>0.3240712854612084</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.740842702202173</v>
+        <v>1.86891787625953</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.673543251902629</v>
+        <v>1.088615447569254</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0455271212264492</v>
+        <v>0.09379964337353641</v>
       </c>
       <c r="E23">
-        <v>0.2780632073641245</v>
+        <v>0.1177664063166817</v>
       </c>
       <c r="F23">
-        <v>0.8075665218257058</v>
+        <v>0.6865682322780202</v>
       </c>
       <c r="G23">
-        <v>0.002428527576460365</v>
+        <v>0.0007858403813587378</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.078908052324515</v>
+        <v>0.4026142107176511</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7321167497869965</v>
+        <v>2.332230282347382</v>
       </c>
       <c r="L23">
-        <v>0.1855917737444059</v>
+        <v>0.3415116063331851</v>
       </c>
       <c r="M23">
-        <v>0.183619695463257</v>
+        <v>0.3123706784041715</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.740773572982363</v>
+        <v>1.834679024609443</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6321361137667907</v>
+        <v>0.9363161406012637</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04190888174082374</v>
+        <v>0.08312947854251007</v>
       </c>
       <c r="E24">
-        <v>0.2807999994867745</v>
+        <v>0.1225531245592788</v>
       </c>
       <c r="F24">
-        <v>0.8007259152746116</v>
+        <v>0.6229115691103146</v>
       </c>
       <c r="G24">
-        <v>0.002432163316070953</v>
+        <v>0.0007918882823380205</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.096311350668223</v>
+        <v>0.4286242946297456</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6342455772024778</v>
+        <v>2.021819221451835</v>
       </c>
       <c r="L24">
-        <v>0.1729934850727659</v>
+        <v>0.2929259705375244</v>
       </c>
       <c r="M24">
-        <v>0.1718954807358344</v>
+        <v>0.2684196719989416</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.743420020455034</v>
+        <v>1.714092852445162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5881440087123053</v>
+        <v>0.7739203248610238</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03796253167770658</v>
+        <v>0.07161733791190983</v>
       </c>
       <c r="E25">
-        <v>0.2840103373643486</v>
+        <v>0.1281187597591572</v>
       </c>
       <c r="F25">
-        <v>0.7952272294687575</v>
+        <v>0.559760021278727</v>
       </c>
       <c r="G25">
-        <v>0.002436384944236559</v>
+        <v>0.0007986620798108793</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.116961016995891</v>
+        <v>0.4607378817770424</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5279917541649013</v>
+        <v>1.688271900533152</v>
       </c>
       <c r="L25">
-        <v>0.159653603394716</v>
+        <v>0.2414517735187047</v>
       </c>
       <c r="M25">
-        <v>0.1594565376865802</v>
+        <v>0.2216606590243586</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.75248154467522</v>
+        <v>1.60136835724623</v>
       </c>
     </row>
   </sheetData>
